--- a/config/case.xlsx
+++ b/config/case.xlsx
@@ -19,25 +19,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
-  <si>
-    <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证码</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>expect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> "sysErrDesc": "参数错误"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sysErrDesc": "服务内部错误"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"success": true
+"sysErrDesc": ""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "id":"992200",
+ "newPwd":"Mw123456"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "id":"992201",
+ "newPwd":"Mw123456"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+ "id":"992828289999",
+ "newPwd":"Mw123456"
+}       </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -81,8 +107,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -363,60 +392,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
-    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="20.125" customWidth="1"/>
+    <col min="3" max="3" width="24.375" customWidth="1"/>
     <col min="4" max="4" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>99999</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>123456</v>
-      </c>
-      <c r="D2">
-        <v>8888</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>9999</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>123456</v>
-      </c>
-      <c r="D4">
-        <v>8888</v>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/config/case.xlsx
+++ b/config/case.xlsx
@@ -47,23 +47,23 @@
   </si>
   <si>
     <t>{
- "id":"992200",
+ "id":"992201",
+ "newPwd":"Mw123457"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "id":"992293938383838",
  "newPwd":"Mw123456"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
- "id":"992201",
- "newPwd":"Mw123456"
+ "id":"992200",
+ "newPwd":"Mw123458"
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
- "id":"992828289999",
- "newPwd":"Mw123456"
-}       </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -395,12 +395,12 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.125" customWidth="1"/>
+    <col min="2" max="2" width="60" customWidth="1"/>
     <col min="3" max="3" width="24.375" customWidth="1"/>
     <col min="4" max="4" width="21.25" customWidth="1"/>
   </cols>
@@ -421,7 +421,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -432,7 +432,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -443,7 +443,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
